--- a/biology/Zoologie/Curicta_(genre)/Curicta_(genre).xlsx
+++ b/biology/Zoologie/Curicta_(genre)/Curicta_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curictini
-Curicta est un genre d'insectes aquatiques, de l'infra-ordre des hétéroptères (punaises) et de la famille des Nepidae[1], le seul de la tribu monotypique des Curictini[1]. 
+Curicta est un genre d'insectes aquatiques, de l'infra-ordre des hétéroptères (punaises) et de la famille des Nepidae, le seul de la tribu monotypique des Curictini. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Curicta ont généralement le corps aplati, de couleur brunâtre à grisâtre en forme de navette étroite et allongée, avec à l'extrémité de l'abdomen un organe respiratoire (siphon) en tube plus ou moins long (qui les distingue des Belostomatidae). Comme chez les autres Nepinae, la distance entre les hanches (coxae) médianes est supérieure au diamètre d'une de ces hanches. Elles ont les pattes antérieures ravisseuses (avec le tibia qui se replie sur le fémur).   
-La distinction d'avec les Nepini se fait en partie sur la base des organes génitaux internes et sur la suture entre les segments abdominaux chez les mâles[2]. Mais on peut signaler que les Curicta ont le corps un peu plus étroit que les Nepini, que leur cinquième sternite (segment ventral de l'abdomen) a peu près la même longueur que le segment précédent, alors que chez Nepa, il est beaucoup plus long, et leur pronotum est plus long que large[3].   
+La distinction d'avec les Nepini se fait en partie sur la base des organes génitaux internes et sur la suture entre les segments abdominaux chez les mâles. Mais on peut signaler que les Curicta ont le corps un peu plus étroit que les Nepini, que leur cinquième sternite (segment ventral de l'abdomen) a peu près la même longueur que le segment précédent, alors que chez Nepa, il est beaucoup plus long, et leur pronotum est plus long que large.   
 Avec leur aspect général, qui fait penser à des scorpions, bien que l'appendice caudal soit un organe respiratoire, on les range en anglais dans l'appellation « water scorpions », « scorpions d'eau ».  
 </t>
         </is>
@@ -545,10 +559,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Curicta est presque exclusivement néotropical (Amérique du Sud et centrale, et Caraïbes), avec deux espèces qui remontent jusqu'au États-Unis, entre l'Arizona et le Mississipi (sud de l'écozone néarctique)[3],[4]. 
-Leurs habitats sont des milieux lentiques (eaux non courantes), peu profonds, ou de petits cours d'eau calmes, avec de la végétation aquatique, un fond boueux. Elles affectionnent également de se mettre parmi les feuilles mortes du fond[5].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Curicta est presque exclusivement néotropical (Amérique du Sud et centrale, et Caraïbes), avec deux espèces qui remontent jusqu'au États-Unis, entre l'Arizona et le Mississipi (sud de l'écozone néarctique),. 
+Leurs habitats sont des milieux lentiques (eaux non courantes), peu profonds, ou de petits cours d'eau calmes, avec de la végétation aquatique, un fond boueux. Elles affectionnent également de se mettre parmi les feuilles mortes du fond.  
 </t>
         </is>
       </c>
@@ -577,11 +593,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Curictini sont adaptées à la vie aquatiques. Elles sont prédatrices et se nourrissent de petits insectes et crustacés. Elles se cachent dans la boue ou sur des grosses branches submergées, etc. Leur corps plat et leur couleur sombre leur permet d'être presque invisible à leurs proies. 
-Lors de l'accouplement, qui dure plusieurs heures, le mâle se place à côté de la femelle, légèrement en biais, et il l'accroche avec ses pattes d'un côté. Le tibia antérieur tient la femelle par la tête, la patte médiane l'accroche en arrière du scutellum. Il tord l'extrémité de son abdomen de manière à amener ses organes génitaux, orientés vers l'avant (alors qu'au repos, ils sont orientés vers l'arrière) sous ceux de la femelle[6]. Les femelles pondent les œufs sur les rives et les recouvrent de boue[5] Les œufs ont une couronne de tubes (une douzaine chez C. bonaerensis, par exemple) qui permettent les échanges gazeux[7]. Les juvéniles sont d'apparence semblable aux adultes, mais sans ailes (des ébauches sont présentes aux stades III à V), et leur siphon est plus court[8]. 
-Les Curicta se dispersent en volant[5]. Ces espèces sont capables de faire le mort en cas de capture[4]. Pour éviter les crues soudaines, en cas de pluie, C. pronotata rampe hors de l'eau et monte plus haut sur les rives[9].  
+Lors de l'accouplement, qui dure plusieurs heures, le mâle se place à côté de la femelle, légèrement en biais, et il l'accroche avec ses pattes d'un côté. Le tibia antérieur tient la femelle par la tête, la patte médiane l'accroche en arrière du scutellum. Il tord l'extrémité de son abdomen de manière à amener ses organes génitaux, orientés vers l'avant (alors qu'au repos, ils sont orientés vers l'arrière) sous ceux de la femelle. Les femelles pondent les œufs sur les rives et les recouvrent de boue Les œufs ont une couronne de tubes (une douzaine chez C. bonaerensis, par exemple) qui permettent les échanges gazeux. Les juvéniles sont d'apparence semblable aux adultes, mais sans ailes (des ébauches sont présentes aux stades III à V), et leur siphon est plus court. 
+Les Curicta se dispersent en volant. Ces espèces sont capables de faire le mort en cas de capture. Pour éviter les crues soudaines, en cas de pluie, C. pronotata rampe hors de l'eau et monte plus haut sur les rives.  
 </t>
         </is>
       </c>
